--- a/Documentatie/Documenten/window coords.xlsx
+++ b/Documentatie/Documenten/window coords.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="48" documentId="11_924858E5C0DEB8026F15A6DB943E8C1851038383" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C22568A-74F6-4B56-9C61-A64517BA9F85}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EXB050\Desktop\Bachelorproef\Documentatie\Documenten\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32312832-8AE0-402F-A0DB-A52B66B025B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -334,7 +339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,7 +386,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -695,18 +700,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="80.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="76.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="80.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="76.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -717,7 +722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -728,7 +733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -739,7 +744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -750,7 +755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -761,7 +766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -772,7 +777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -783,7 +788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -794,7 +799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -805,7 +810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -816,7 +821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -827,7 +832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -838,7 +843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -849,7 +854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -860,7 +865,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -871,7 +876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -882,7 +887,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -893,7 +898,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -904,7 +909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -915,7 +920,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -926,7 +931,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -937,7 +942,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -948,7 +953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -959,7 +964,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -970,7 +975,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -981,7 +986,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -992,7 +997,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1003,7 +1008,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1014,7 +1019,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1025,7 +1030,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1036,7 +1041,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1047,7 +1052,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1058,7 +1063,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1069,7 +1074,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1080,7 +1085,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1091,7 +1096,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1102,7 +1107,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1113,7 +1118,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1124,7 +1129,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1135,7 +1140,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1146,7 +1151,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1157,7 +1162,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1168,7 +1173,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1179,7 +1184,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1190,7 +1195,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1201,7 +1206,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1212,7 +1217,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1223,7 +1228,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1234,7 +1239,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1245,14 +1250,14 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>99</v>
       </c>
     </row>

--- a/Documentatie/Documenten/window coords.xlsx
+++ b/Documentatie/Documenten/window coords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EXB050\Desktop\Bachelorproef\Documentatie\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32312832-8AE0-402F-A0DB-A52B66B025B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFD3224-2ACC-44A7-8806-B54638D46602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Knop</t>
   </si>
@@ -41,298 +41,151 @@
     <t>Coords</t>
   </si>
   <si>
-    <t>Coords string array</t>
-  </si>
-  <si>
-    <t>541,155,588,191</t>
-  </si>
-  <si>
-    <t>541,155,588,191,</t>
-  </si>
-  <si>
-    <t>539,277,586,314</t>
-  </si>
-  <si>
-    <t>539,277,586,314,</t>
-  </si>
-  <si>
-    <t>470,191,423,153</t>
-  </si>
-  <si>
-    <t>470,191,423,153,</t>
-  </si>
-  <si>
-    <t>422,278,468,315</t>
-  </si>
-  <si>
-    <t>422,278,468,315,</t>
-  </si>
-  <si>
-    <t>365,152,411,190</t>
-  </si>
-  <si>
-    <t>365,152,411,190,</t>
-  </si>
-  <si>
-    <t>364,278,410,317</t>
-  </si>
-  <si>
-    <t>364,278,410,317,</t>
-  </si>
-  <si>
-    <t>326,163,361,189</t>
-  </si>
-  <si>
-    <t>326,163,361,189,</t>
-  </si>
-  <si>
-    <t>324,279,360,306</t>
-  </si>
-  <si>
-    <t>324,279,360,306,</t>
-  </si>
-  <si>
-    <t>269,152,316,191</t>
-  </si>
-  <si>
-    <t>269,152,316,191,</t>
-  </si>
-  <si>
-    <t>268,278,314,315</t>
-  </si>
-  <si>
-    <t>268,278,314,315,</t>
-  </si>
-  <si>
-    <t>150,153,197,190</t>
-  </si>
-  <si>
-    <t>150,153,197,190,</t>
-  </si>
-  <si>
-    <t>149,278,194,315</t>
-  </si>
-  <si>
-    <t>149,278,194,315,</t>
-  </si>
-  <si>
-    <t>95,152,142,190</t>
-  </si>
-  <si>
-    <t>95,152,142,190,</t>
-  </si>
-  <si>
-    <t>94,279,141,316</t>
-  </si>
-  <si>
-    <t>94,279,141,316,</t>
-  </si>
-  <si>
-    <t>601,372,648,409</t>
-  </si>
-  <si>
-    <t>601,372,648,409,</t>
-  </si>
-  <si>
-    <t>601,486,648,525</t>
-  </si>
-  <si>
-    <t>601,486,648,525,</t>
-  </si>
-  <si>
-    <t>546,371,594,409</t>
-  </si>
-  <si>
-    <t>546,371,594,409,</t>
-  </si>
-  <si>
-    <t>549,488,593,525</t>
-  </si>
-  <si>
-    <t>549,488,593,525,</t>
-  </si>
-  <si>
-    <t>429,370,477,409</t>
-  </si>
-  <si>
-    <t>429,370,477,409,</t>
-  </si>
-  <si>
-    <t>429,488,476,525</t>
-  </si>
-  <si>
-    <t>429,488,476,525,</t>
-  </si>
-  <si>
-    <t>371,370,417,407</t>
-  </si>
-  <si>
-    <t>371,370,417,407,</t>
-  </si>
-  <si>
-    <t>371,488,418,525</t>
-  </si>
-  <si>
-    <t>371,488,418,525,</t>
-  </si>
-  <si>
-    <t>331,381,367,405</t>
-  </si>
-  <si>
-    <t>331,381,367,405,</t>
-  </si>
-  <si>
-    <t>331,490,367,515</t>
-  </si>
-  <si>
-    <t>331,490,367,515,</t>
-  </si>
-  <si>
-    <t>274,371,322,407</t>
-  </si>
-  <si>
-    <t>274,371,322,407,</t>
-  </si>
-  <si>
-    <t>274,487,322,526</t>
-  </si>
-  <si>
-    <t>274,487,322,526,</t>
-  </si>
-  <si>
-    <t>156,368,204,407</t>
-  </si>
-  <si>
-    <t>156,368,204,407,</t>
-  </si>
-  <si>
-    <t>158,487,204,524</t>
-  </si>
-  <si>
-    <t>158,487,204,524,</t>
-  </si>
-  <si>
-    <t>103,368,150,406</t>
-  </si>
-  <si>
-    <t>103,368,150,406,</t>
-  </si>
-  <si>
-    <t>102,487,150,526</t>
-  </si>
-  <si>
-    <t>102,487,150,526,</t>
-  </si>
-  <si>
-    <t>601,579,647,616</t>
-  </si>
-  <si>
-    <t>601,579,647,616,</t>
-  </si>
-  <si>
-    <t>601,702,648,740</t>
-  </si>
-  <si>
-    <t>601,702,648,740,</t>
-  </si>
-  <si>
-    <t>547,579,594,616</t>
-  </si>
-  <si>
-    <t>547,579,594,616,</t>
-  </si>
-  <si>
-    <t>547,702,593,739</t>
-  </si>
-  <si>
-    <t>547,702,593,739,</t>
-  </si>
-  <si>
-    <t>442,579,487,615</t>
-  </si>
-  <si>
-    <t>442,579,487,615,</t>
-  </si>
-  <si>
-    <t>432,703,478,741</t>
-  </si>
-  <si>
-    <t>432,703,478,741,</t>
-  </si>
-  <si>
-    <t>335,589,371,615</t>
-  </si>
-  <si>
-    <t>335,589,371,615,</t>
-  </si>
-  <si>
-    <t>373,704,419,740</t>
-  </si>
-  <si>
-    <t>373,704,419,740,</t>
-  </si>
-  <si>
-    <t>279,579,326,616</t>
-  </si>
-  <si>
-    <t>279,579,326,616,</t>
-  </si>
-  <si>
-    <t>330,704,366,730</t>
-  </si>
-  <si>
-    <t>330,704,366,730,</t>
-  </si>
-  <si>
-    <t>162,581,208,617</t>
-  </si>
-  <si>
-    <t>162,581,208,617,</t>
-  </si>
-  <si>
-    <t>278,703,326,739</t>
-  </si>
-  <si>
-    <t>278,703,326,739,</t>
-  </si>
-  <si>
-    <t>162,700,209,738</t>
-  </si>
-  <si>
-    <t>162,700,209,738,</t>
-  </si>
-  <si>
-    <t>600,168,636,191</t>
-  </si>
-  <si>
-    <t>600,168,636,191,</t>
-  </si>
-  <si>
-    <t>695,206,741,263</t>
-  </si>
-  <si>
-    <t>695,206,741,263,</t>
-  </si>
-  <si>
-    <t>599,276,635,303</t>
-  </si>
-  <si>
-    <t>599,276,635,303,</t>
-  </si>
-  <si>
-    <t>117,591,154,619</t>
-  </si>
-  <si>
-    <t>117,591,154,619,</t>
-  </si>
-  <si>
-    <t>10,633,57,695</t>
-  </si>
-  <si>
-    <t>10,633,57,695,</t>
-  </si>
-  <si>
-    <t>115,700,154,727</t>
+    <t>            "576,291,622,332",</t>
+  </si>
+  <si>
+    <t>            "451,135,496,177",</t>
+  </si>
+  <si>
+    <t>            "450,291,497,332",</t>
+  </si>
+  <si>
+    <t>            "391,135,437,177",</t>
+  </si>
+  <si>
+    <t>            "391,291,437,332",</t>
+  </si>
+  <si>
+    <t>            "340,135,387,177",</t>
+  </si>
+  <si>
+    <t>            "341,291,387,332",</t>
+  </si>
+  <si>
+    <t>            "288,135,333,177",</t>
+  </si>
+  <si>
+    <t>            "288,291,333,332",</t>
+  </si>
+  <si>
+    <t>            "161,135,207,176",</t>
+  </si>
+  <si>
+    <t>            "162,290,208,332",</t>
+  </si>
+  <si>
+    <t>            "104,135,150,177",</t>
+  </si>
+  <si>
+    <t>            "104,291,150,332",</t>
+  </si>
+  <si>
+    <t>            "636,367,682,409",</t>
+  </si>
+  <si>
+    <t>            "635,515,681,556",</t>
+  </si>
+  <si>
+    <t>            "577,367,622,409",</t>
+  </si>
+  <si>
+    <t>            "577,515,624,556",</t>
+  </si>
+  <si>
+    <t>            "451,367,497,409",</t>
+  </si>
+  <si>
+    <t>            "451,515,497,556",</t>
+  </si>
+  <si>
+    <t>            "391,367,438,409",</t>
+  </si>
+  <si>
+    <t>            "391,515,437,556",</t>
+  </si>
+  <si>
+    <t>            "342,367,387,409",</t>
+  </si>
+  <si>
+    <t>            "341,516,386,557",</t>
+  </si>
+  <si>
+    <t>            "288,367,334,408",</t>
+  </si>
+  <si>
+    <t>            "288,514,334,556",</t>
+  </si>
+  <si>
+    <t>            "161,367,207,409",</t>
+  </si>
+  <si>
+    <t>            "162,515,208,556",</t>
+  </si>
+  <si>
+    <t>            "103,367,150,409",</t>
+  </si>
+  <si>
+    <t>            "104,515,151,556",</t>
+  </si>
+  <si>
+    <t>            "638,596,684,638",</t>
+  </si>
+  <si>
+    <t>            "461,742,507,783",</t>
+  </si>
+  <si>
+    <t>            "582,597,627,639",</t>
+  </si>
+  <si>
+    <t>            "396,742,443,783",</t>
+  </si>
+  <si>
+    <t>            "471,596,517,638",</t>
+  </si>
+  <si>
+    <t>            "345,742,391,783",</t>
+  </si>
+  <si>
+    <t>            "351,596,398,638",</t>
+  </si>
+  <si>
+    <t>            "293,742,339,783",</t>
+  </si>
+  <si>
+    <t>            "297,596,342,638",</t>
+  </si>
+  <si>
+    <t>            "172,742,217,783",</t>
+  </si>
+  <si>
+    <t>            "172,597,218,638",</t>
+  </si>
+  <si>
+    <t>            "583,742,629,784",</t>
+  </si>
+  <si>
+    <t>            "641,741,687,783",</t>
+  </si>
+  <si>
+    <t>            "636,134,682,176",</t>
+  </si>
+  <si>
+    <t>            "636,290,682,331",</t>
+  </si>
+  <si>
+    <t>            "743,212,788,254",</t>
+  </si>
+  <si>
+    <t>            "116,597,163,638",</t>
+  </si>
+  <si>
+    <t>            "11,668,57,710",</t>
+  </si>
+  <si>
+    <t>            "116,742,162,783",</t>
+  </si>
+  <si>
+    <t>            "576,135,622,177",</t>
   </si>
 </sst>
 </file>
@@ -376,13 +229,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,550 +574,441 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="B24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="B25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="B27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="B29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="B30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="B31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="B32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>66</v>
+      <c r="B33" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="B34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>70</v>
+      <c r="B35" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>72</v>
+      <c r="B36" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>74</v>
+      <c r="B37" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>76</v>
+      <c r="B38" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>78</v>
+      <c r="B39" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>80</v>
+      <c r="B40" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>82</v>
+      <c r="B41" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>84</v>
+      <c r="B42" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>86</v>
+      <c r="B43" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>88</v>
+      <c r="B44" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>90</v>
+      <c r="B45" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>92</v>
+      <c r="B46" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>94</v>
+      <c r="B47" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>96</v>
+      <c r="B48" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>98</v>
+      <c r="B49" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="B50" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>